--- a/biology/Écologie/Edwin_Way_Teale/Edwin_Way_Teale.xlsx
+++ b/biology/Écologie/Edwin_Way_Teale/Edwin_Way_Teale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwin Way Teale (2 juin 1899 – 18 octobre 1980) est un naturaliste, photographe et écrivain américain qui a obtenu le prix Pulitzer. Le travail de Teale repose sur une enquête précise et documentée des conditions environnementales de l'Amérique du Nord des années 1930 à 1980. Il est surtout connu pour sa série de quatre ouvrages documentés, The American Seasons, qui retrace son voyage en voiture, sur près de 75 000 miles (soit 121 000 km) à travers l'Amérique du Nord, en suivant les changements saisonniers.
 </t>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">The Book of Gliders (1930)
 Grassroot Jungles (1937)
